--- a/Attendance/bin/Debug/SWH_R.xlsx
+++ b/Attendance/bin/Debug/SWH_R.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -29,54 +29,30 @@
     <t>Abışov Gülməmməd Fitat oğlu</t>
   </si>
   <si>
-    <t>06.01.2018 9:42:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 15:59:00</t>
+    <t>06.01.2018 9:18:00</t>
+  </si>
+  <si>
+    <t>06.01.2018 9:20:00</t>
   </si>
   <si>
     <t>Cəfərzadə Turan</t>
   </si>
   <si>
-    <t>06.01.2018 8:54:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 15:57:00</t>
+    <t>-</t>
   </si>
   <si>
     <t>Əsədova Nərgiz Ağababa qızı</t>
   </si>
   <si>
-    <t>06.01.2018 8:02:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 18:20:00</t>
-  </si>
-  <si>
     <t>Hadıyeva Şəhlaxanım</t>
   </si>
   <si>
-    <t>06.01.2018 9:41:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 17:07:00</t>
-  </si>
-  <si>
     <t>Həsənov Hidayət Eldar oğlu</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Yusifzadə Cəmilə</t>
   </si>
   <si>
-    <t>06.01.2018 11:38:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 17:01:00</t>
-  </si>
-  <si>
     <t>Məhərrəmov Cavanşir Cahangir oğlu</t>
   </si>
   <si>
@@ -86,66 +62,27 @@
     <t>İsmayılova İnna Borisovna</t>
   </si>
   <si>
-    <t>06.01.2018 10:30:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 15:48:00</t>
-  </si>
-  <si>
     <t>Kavkazi Ramina Vamiq qızı</t>
   </si>
   <si>
-    <t>06.01.2018 13:47:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 17:36:00</t>
-  </si>
-  <si>
     <t>Kazımov Orxan Mahmud oğlu</t>
   </si>
   <si>
-    <t>06.01.2018 9:49:00</t>
-  </si>
-  <si>
     <t>Məmmədhəsənov Məmməd</t>
   </si>
   <si>
-    <t>06.01.2018 9:56:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 17:18:00</t>
-  </si>
-  <si>
     <t>Məmmədova Səbinə Vaqif qızı</t>
   </si>
   <si>
-    <t>06.01.2018 10:40:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 19:10:00</t>
-  </si>
-  <si>
     <t>İsgəndərzadə Afət</t>
   </si>
   <si>
     <t>Mürsəliyev Elçin Ramiz oğlu</t>
   </si>
   <si>
-    <t>06.01.2018 10:25:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 16:59:00</t>
-  </si>
-  <si>
     <t>Kazımova Dinara</t>
   </si>
   <si>
-    <t>06.01.2018 11:54:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 17:45:00</t>
-  </si>
-  <si>
     <t>Qasımov Adil Əli oğlu</t>
   </si>
   <si>
@@ -155,45 +92,21 @@
     <t>Quliyeva Turan Fuad qızı</t>
   </si>
   <si>
-    <t>06.01.2018 8:03:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 17:14:00</t>
-  </si>
-  <si>
     <t>Vəliyev Fərid Eldar oğlu</t>
   </si>
   <si>
-    <t>06.01.2018 14:08:00</t>
-  </si>
-  <si>
     <t>Svixnuşına Natalya Alekseyevna</t>
   </si>
   <si>
-    <t>06.01.2018 9:51:00</t>
-  </si>
-  <si>
     <t>Hadıyeva Səadət</t>
   </si>
   <si>
-    <t>06.01.2018 18:16:00</t>
-  </si>
-  <si>
     <t>Ağayev Rauf Knyaz</t>
   </si>
   <si>
-    <t>06.01.2018 13:24:00</t>
-  </si>
-  <si>
     <t>Hüseynova Arzu Teyyub qızı</t>
   </si>
   <si>
-    <t>06.01.2018 9:24:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 16:51:00</t>
-  </si>
-  <si>
     <t>Allahverdiyev Murad Oktay</t>
   </si>
   <si>
@@ -209,12 +122,6 @@
     <t>Novruzova Ellada Tofikovna</t>
   </si>
   <si>
-    <t>06.01.2018 8:21:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 17:03:00</t>
-  </si>
-  <si>
     <t>Baxışəliyeva Nəzrin Namiq</t>
   </si>
   <si>
@@ -233,12 +140,6 @@
     <t>Budaqova Nazilə Ali</t>
   </si>
   <si>
-    <t>06.01.2018 13:19:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 13:23:00</t>
-  </si>
-  <si>
     <t>Bugriyeva Irina Vladimirovna</t>
   </si>
   <si>
@@ -248,12 +149,6 @@
     <t>Əfəndiyev Əli-Nəsih</t>
   </si>
   <si>
-    <t>06.01.2018 9:40:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 10:00:00</t>
-  </si>
-  <si>
     <t>Əhmədov Namiq Malik</t>
   </si>
   <si>
@@ -263,24 +158,12 @@
     <t>Abasova Validə Ağa Baba qızı</t>
   </si>
   <si>
-    <t>06.01.2018 8:27:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 15:31:00</t>
-  </si>
-  <si>
     <t>Əliyeva Solmaz Aqalarovna</t>
   </si>
   <si>
     <t>Əmiri Səidə Ravil qızı</t>
   </si>
   <si>
-    <t>06.01.2018 8:23:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 16:52:00</t>
-  </si>
-  <si>
     <t>Əsgərova Gövhər Mübariz</t>
   </si>
   <si>
@@ -293,9 +176,6 @@
     <t>Həsənova Aygün</t>
   </si>
   <si>
-    <t>06.01.2018 16:55:00</t>
-  </si>
-  <si>
     <t>Həsənova Nərgiz Qabil</t>
   </si>
   <si>
@@ -311,49 +191,22 @@
     <t>Kazımov Azər Əsəd</t>
   </si>
   <si>
-    <t>06.01.2018 12:09:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 12:20:00</t>
-  </si>
-  <si>
     <t>Kəngərli Elşən Vahid</t>
   </si>
   <si>
     <t>Mehdiyeva Nərminə Kamil</t>
   </si>
   <si>
-    <t>06.01.2018 9:46:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 16:58:00</t>
-  </si>
-  <si>
     <t>Məhərrəmov Yasəf Rəcəb</t>
   </si>
   <si>
     <t>Məmmədov Amin Sənan</t>
   </si>
   <si>
-    <t>06.01.2018 15:02:00</t>
-  </si>
-  <si>
     <t>Məmmədov Murad Elçin</t>
   </si>
   <si>
-    <t>06.01.2018 9:59:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 15:03:00</t>
-  </si>
-  <si>
     <t>Məmmədov Tahir Tagir</t>
-  </si>
-  <si>
-    <t>06.01.2018 14:02:00</t>
-  </si>
-  <si>
-    <t>06.01.2018 9:35:00</t>
   </si>
   <si>
     <t>Məmmədov Teymur Namik</t>
@@ -434,8 +287,8 @@
   <cols>
     <col min="1" max="1" width="42.2711312430246" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5680127825056" customWidth="1"/>
-    <col min="4" max="4" width="24.5680127825056" customWidth="1"/>
+    <col min="3" max="3" width="23.1760864257813" customWidth="1"/>
+    <col min="4" max="4" width="23.1760864257813" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,819 +330,819 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>20051</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>17991</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>11607</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>10938</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>18164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>19948</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>11395</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>15462</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>13599</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>28876</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>12365</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>11782</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>18629</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>11008</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>15246</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
         <v>18774</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
         <v>11778</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
         <v>13534</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>11394</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
         <v>19920</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
         <v>10545</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>12608</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
         <v>10325</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
         <v>18873</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
         <v>16196</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>26846</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>12607</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
         <v>19934</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2">
         <v>11937</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
         <v>14309</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2">
         <v>26701</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>27506</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
         <v>26050</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
         <v>11351</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>11352</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>26864</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>10774</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>16080</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>10242</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>20425</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>13498</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>19503</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>19273</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>29226</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
         <v>15735</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
         <v>19969</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
         <v>19230</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
         <v>10031</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
         <v>26748</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
         <v>11730</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2">
         <v>15385</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
         <v>12418</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
         <v>12348</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2">
         <v>19532</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2">
         <v>20371</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2">
         <v>20410</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2">
         <v>29417</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
         <v>15380</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
